--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H2">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>19729.18211711285</v>
+        <v>8600.418512365397</v>
       </c>
       <c r="R2">
-        <v>177562.6390540156</v>
+        <v>77403.76661128856</v>
       </c>
       <c r="S2">
-        <v>0.2958481822698133</v>
+        <v>0.1973436804042017</v>
       </c>
       <c r="T2">
-        <v>0.2958481822698132</v>
+        <v>0.1973436804042017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H3">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>62.31162726681601</v>
+        <v>39.59892074868979</v>
       </c>
       <c r="R3">
-        <v>560.804645401344</v>
+        <v>356.390286738208</v>
       </c>
       <c r="S3">
-        <v>0.0009343915805395476</v>
+        <v>0.0009086298241585777</v>
       </c>
       <c r="T3">
-        <v>0.0009343915805395473</v>
+        <v>0.0009086298241585779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H4">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>374.539074704496</v>
+        <v>359.7556101084809</v>
       </c>
       <c r="R4">
-        <v>3370.851672340464</v>
+        <v>3237.800490976329</v>
       </c>
       <c r="S4">
-        <v>0.005616386111831295</v>
+        <v>0.008254888531621069</v>
       </c>
       <c r="T4">
-        <v>0.005616386111831295</v>
+        <v>0.00825488853162107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J5">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>35324.92394767659</v>
+        <v>24231.34285204438</v>
       </c>
       <c r="R5">
-        <v>317924.3155290894</v>
+        <v>218082.0856683995</v>
       </c>
       <c r="S5">
-        <v>0.5297135216606172</v>
+        <v>0.5560081027084</v>
       </c>
       <c r="T5">
-        <v>0.5297135216606171</v>
+        <v>0.5560081027084001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J6">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
         <v>111.5684107526684</v>
@@ -818,10 +818,10 @@
         <v>1004.115696774016</v>
       </c>
       <c r="S6">
-        <v>0.001673019759459705</v>
+        <v>0.00256002899895203</v>
       </c>
       <c r="T6">
-        <v>0.001673019759459705</v>
+        <v>0.002560028998952031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J7">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N7">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q7">
-        <v>670.6088600547439</v>
+        <v>1013.597363773806</v>
       </c>
       <c r="R7">
-        <v>6035.479740492695</v>
+        <v>9122.376273964255</v>
       </c>
       <c r="S7">
-        <v>0.01005608905039907</v>
+        <v>0.02325782564273205</v>
       </c>
       <c r="T7">
-        <v>0.01005608905039907</v>
+        <v>0.02325782564273205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H8">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N8">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O8">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P8">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q8">
-        <v>10188.12267693652</v>
+        <v>8815.302583038701</v>
       </c>
       <c r="R8">
-        <v>91693.10409242869</v>
+        <v>79337.72324734832</v>
       </c>
       <c r="S8">
-        <v>0.1527755969214308</v>
+        <v>0.2022743722427368</v>
       </c>
       <c r="T8">
-        <v>0.1527755969214308</v>
+        <v>0.2022743722427369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H9">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q9">
-        <v>32.17763914517334</v>
+        <v>40.58831181989334</v>
       </c>
       <c r="R9">
-        <v>289.5987523065601</v>
+        <v>365.29480637904</v>
       </c>
       <c r="S9">
-        <v>0.0004825185349460714</v>
+        <v>0.000931332216497932</v>
       </c>
       <c r="T9">
-        <v>0.0004825185349460714</v>
+        <v>0.0009313322164979321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H10">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N10">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q10">
-        <v>193.41146621004</v>
+        <v>368.7442133766267</v>
       </c>
       <c r="R10">
-        <v>1740.70319589036</v>
+        <v>3318.69792038964</v>
       </c>
       <c r="S10">
-        <v>0.002900294110963042</v>
+        <v>0.008461139430699845</v>
       </c>
       <c r="T10">
-        <v>0.002900294110963042</v>
+        <v>0.008461139430699849</v>
       </c>
     </row>
   </sheetData>
